--- a/data/pca/factorExposure/factorExposure_2009-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01699306531094926</v>
+        <v>0.01568230636636908</v>
       </c>
       <c r="C2">
-        <v>-0.01123050464142023</v>
+        <v>0.01272099031483087</v>
       </c>
       <c r="D2">
-        <v>0.01587845421767835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01528196186251165</v>
+      </c>
+      <c r="E2">
+        <v>-0.004046080283171792</v>
+      </c>
+      <c r="F2">
+        <v>-0.005105197393227681</v>
+      </c>
+      <c r="G2">
+        <v>-0.01794411064972185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08209071911064385</v>
+        <v>0.08447657894460647</v>
       </c>
       <c r="C4">
-        <v>-0.08121197992446737</v>
+        <v>0.08655432305373363</v>
       </c>
       <c r="D4">
-        <v>-0.06527060075022657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06470949293476028</v>
+      </c>
+      <c r="E4">
+        <v>0.002350099311415385</v>
+      </c>
+      <c r="F4">
+        <v>-0.03997007071193186</v>
+      </c>
+      <c r="G4">
+        <v>-0.02945010474765435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002528929705592428</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001091893366292044</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-5.983282530747646e-05</v>
+      </c>
+      <c r="E5">
+        <v>-0.002765059465389792</v>
+      </c>
+      <c r="F5">
+        <v>0.0016873853111846</v>
+      </c>
+      <c r="G5">
+        <v>0.001941222786054294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1681237248623338</v>
+        <v>0.1706630676670093</v>
       </c>
       <c r="C6">
-        <v>0.0178085579124633</v>
+        <v>-0.01010769857189882</v>
       </c>
       <c r="D6">
-        <v>-0.05283203450070926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05348041037555144</v>
+      </c>
+      <c r="E6">
+        <v>0.002992478774350319</v>
+      </c>
+      <c r="F6">
+        <v>0.04553509146435933</v>
+      </c>
+      <c r="G6">
+        <v>0.01446946294007948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05484050783477597</v>
+        <v>0.05926549449632413</v>
       </c>
       <c r="C7">
-        <v>-0.05552918240965306</v>
+        <v>0.06156736953107807</v>
       </c>
       <c r="D7">
-        <v>-0.0434392498166863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05492765028324184</v>
+      </c>
+      <c r="E7">
+        <v>0.04124665609375271</v>
+      </c>
+      <c r="F7">
+        <v>-0.06869300365331223</v>
+      </c>
+      <c r="G7">
+        <v>-0.04554912018880439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05760834437500989</v>
+        <v>0.0537687115109577</v>
       </c>
       <c r="C8">
-        <v>-0.04565475440869907</v>
+        <v>0.04711697624444491</v>
       </c>
       <c r="D8">
-        <v>0.0233426394895416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02263156758428672</v>
+      </c>
+      <c r="E8">
+        <v>-0.02472694559101929</v>
+      </c>
+      <c r="F8">
+        <v>-0.03264522069881762</v>
+      </c>
+      <c r="G8">
+        <v>0.005141831288390183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06213279582235789</v>
+        <v>0.06539535852709309</v>
       </c>
       <c r="C9">
-        <v>-0.08742983756717357</v>
+        <v>0.09117639709729949</v>
       </c>
       <c r="D9">
-        <v>-0.08631811114055238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08340121595232904</v>
+      </c>
+      <c r="E9">
+        <v>0.004401391448889042</v>
+      </c>
+      <c r="F9">
+        <v>-0.06529808958808497</v>
+      </c>
+      <c r="G9">
+        <v>-0.003544826461825801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1055311781238953</v>
+        <v>0.09824650434951977</v>
       </c>
       <c r="C10">
-        <v>0.1550455023242992</v>
+        <v>-0.1477984126561481</v>
       </c>
       <c r="D10">
-        <v>0.1075176814179771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09638462928165535</v>
+      </c>
+      <c r="E10">
+        <v>0.01595041333717772</v>
+      </c>
+      <c r="F10">
+        <v>-0.04050989314328889</v>
+      </c>
+      <c r="G10">
+        <v>0.006531669245147574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07995389147226266</v>
+        <v>0.07779003530589573</v>
       </c>
       <c r="C11">
-        <v>-0.1280449923371708</v>
+        <v>0.1273424486596295</v>
       </c>
       <c r="D11">
-        <v>-0.05392081731090019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04505896230811317</v>
+      </c>
+      <c r="E11">
+        <v>-0.01266527899910913</v>
+      </c>
+      <c r="F11">
+        <v>-0.07744295542907711</v>
+      </c>
+      <c r="G11">
+        <v>-0.006880965825424918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08400865858333682</v>
+        <v>0.07967205577753361</v>
       </c>
       <c r="C12">
-        <v>-0.1453868353099302</v>
+        <v>0.1471218199804435</v>
       </c>
       <c r="D12">
-        <v>-0.057354882866331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05390911715207107</v>
+      </c>
+      <c r="E12">
+        <v>-0.002313771385244966</v>
+      </c>
+      <c r="F12">
+        <v>-0.08402775254264593</v>
+      </c>
+      <c r="G12">
+        <v>-0.009487401894002219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04260577688029554</v>
+        <v>0.04243942917212278</v>
       </c>
       <c r="C13">
-        <v>-0.06098036107344238</v>
+        <v>0.06878907183731815</v>
       </c>
       <c r="D13">
-        <v>-0.0255252514135369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02722006838648672</v>
+      </c>
+      <c r="E13">
+        <v>0.01026929904962845</v>
+      </c>
+      <c r="F13">
+        <v>-0.07765611334665173</v>
+      </c>
+      <c r="G13">
+        <v>-0.01220507037097578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02024530144716718</v>
+        <v>0.02301759251718366</v>
       </c>
       <c r="C14">
-        <v>-0.04079654182964114</v>
+        <v>0.04101270740690368</v>
       </c>
       <c r="D14">
-        <v>-0.04710877105350256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04094299835443839</v>
+      </c>
+      <c r="E14">
+        <v>-0.009032793284933519</v>
+      </c>
+      <c r="F14">
+        <v>-0.08622909474869117</v>
+      </c>
+      <c r="G14">
+        <v>0.0008726984944074295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.0314606218375582</v>
+        <v>0.03381767820514733</v>
       </c>
       <c r="C15">
-        <v>-0.05748358565625725</v>
+        <v>0.05691294568029041</v>
       </c>
       <c r="D15">
-        <v>-0.04367329893688425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03977954239494184</v>
+      </c>
+      <c r="E15">
+        <v>0.007421289103230418</v>
+      </c>
+      <c r="F15">
+        <v>-0.03496796993658994</v>
+      </c>
+      <c r="G15">
+        <v>0.008091851755026731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05858350802058535</v>
+        <v>0.05853064508496218</v>
       </c>
       <c r="C16">
-        <v>-0.1430815974666839</v>
+        <v>0.1427762444654185</v>
       </c>
       <c r="D16">
-        <v>-0.06513816996359129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05499570095700474</v>
+      </c>
+      <c r="E16">
+        <v>-0.0280043113725849</v>
+      </c>
+      <c r="F16">
+        <v>-0.08039636353813308</v>
+      </c>
+      <c r="G16">
+        <v>-0.01123446405574519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004951683320041892</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004097338314903992</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002393885861537832</v>
+      </c>
+      <c r="E17">
+        <v>-0.008885835460184829</v>
+      </c>
+      <c r="F17">
+        <v>0.005177041317185604</v>
+      </c>
+      <c r="G17">
+        <v>0.0171416414969509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.034863376081309</v>
+        <v>0.051401194193758</v>
       </c>
       <c r="C18">
-        <v>-0.04405162740916568</v>
+        <v>0.03820362339110912</v>
       </c>
       <c r="D18">
-        <v>0.0056680199416678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01250121508635065</v>
+      </c>
+      <c r="E18">
+        <v>-0.0001806773879492999</v>
+      </c>
+      <c r="F18">
+        <v>0.04107479847766826</v>
+      </c>
+      <c r="G18">
+        <v>0.01244803167823409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05774217269896721</v>
+        <v>0.05777586335424013</v>
       </c>
       <c r="C20">
-        <v>-0.09369046891630516</v>
+        <v>0.09343974054927404</v>
       </c>
       <c r="D20">
-        <v>-0.07235719979091743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.06858863876160301</v>
+      </c>
+      <c r="E20">
+        <v>-0.0216283002818331</v>
+      </c>
+      <c r="F20">
+        <v>-0.0720838231979322</v>
+      </c>
+      <c r="G20">
+        <v>0.004340039267216435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04212895455101005</v>
+        <v>0.04416664578866297</v>
       </c>
       <c r="C21">
-        <v>-0.05331447570741126</v>
+        <v>0.05287588008877681</v>
       </c>
       <c r="D21">
-        <v>0.001610938809443605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.003083009713833134</v>
+      </c>
+      <c r="E21">
+        <v>0.007769810928984907</v>
+      </c>
+      <c r="F21">
+        <v>-0.07749251916148367</v>
+      </c>
+      <c r="G21">
+        <v>-0.02714263772651884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04494799211015884</v>
+        <v>0.04339337068902978</v>
       </c>
       <c r="C22">
-        <v>-0.01982115199469068</v>
+        <v>0.02081580657037113</v>
       </c>
       <c r="D22">
-        <v>0.0174138370977248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05015733259185209</v>
+      </c>
+      <c r="E22">
+        <v>-0.1164390887604469</v>
+      </c>
+      <c r="F22">
+        <v>0.02260558663227922</v>
+      </c>
+      <c r="G22">
+        <v>0.0002001424899311086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0449573804258932</v>
+        <v>0.04340132177604202</v>
       </c>
       <c r="C23">
-        <v>-0.01981371850911428</v>
+        <v>0.02080942568244833</v>
       </c>
       <c r="D23">
-        <v>0.01744061241560732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05018865892860407</v>
+      </c>
+      <c r="E23">
+        <v>-0.1164720967618275</v>
+      </c>
+      <c r="F23">
+        <v>0.02259818983996887</v>
+      </c>
+      <c r="G23">
+        <v>0.0002346078924360499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06784107244897723</v>
+        <v>0.06718728986094522</v>
       </c>
       <c r="C24">
-        <v>-0.1360247729370657</v>
+        <v>0.1344464256567438</v>
       </c>
       <c r="D24">
-        <v>-0.06018574161827803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05423997852250204</v>
+      </c>
+      <c r="E24">
+        <v>-0.008216696663151389</v>
+      </c>
+      <c r="F24">
+        <v>-0.07360802479750141</v>
+      </c>
+      <c r="G24">
+        <v>-0.01089468940935815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.073568645420954</v>
+        <v>0.07178591649000961</v>
       </c>
       <c r="C25">
-        <v>-0.1220981596411079</v>
+        <v>0.1203084294101285</v>
       </c>
       <c r="D25">
-        <v>-0.04486536184498154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03805939490552585</v>
+      </c>
+      <c r="E25">
+        <v>0.01699200285553779</v>
+      </c>
+      <c r="F25">
+        <v>-0.0878610120157217</v>
+      </c>
+      <c r="G25">
+        <v>-0.01682621689315577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05565887462047864</v>
+        <v>0.0601094542964195</v>
       </c>
       <c r="C26">
-        <v>-0.06378121931819099</v>
+        <v>0.06476900546488205</v>
       </c>
       <c r="D26">
-        <v>-0.01895873873662226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01473938384325012</v>
+      </c>
+      <c r="E26">
+        <v>-0.007802697968170231</v>
+      </c>
+      <c r="F26">
+        <v>-0.08013195293065757</v>
+      </c>
+      <c r="G26">
+        <v>-0.001508177535328251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1683148703168355</v>
+        <v>0.1711549930449897</v>
       </c>
       <c r="C28">
-        <v>0.2326749833279204</v>
+        <v>-0.2326393691473199</v>
       </c>
       <c r="D28">
-        <v>0.01842385562216269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0197856807038172</v>
+      </c>
+      <c r="E28">
+        <v>0.06218962232845163</v>
+      </c>
+      <c r="F28">
+        <v>-0.1238021462202844</v>
+      </c>
+      <c r="G28">
+        <v>-0.0004536974086585059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02430540451989021</v>
+        <v>0.0270377999191494</v>
       </c>
       <c r="C29">
-        <v>-0.04566745538159567</v>
+        <v>0.04288749196137889</v>
       </c>
       <c r="D29">
-        <v>-0.008048392191981207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.001334370928344355</v>
+      </c>
+      <c r="E29">
+        <v>-0.02398448571821013</v>
+      </c>
+      <c r="F29">
+        <v>-0.07583373790015982</v>
+      </c>
+      <c r="G29">
+        <v>-0.001654189288422357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04069671567772001</v>
+        <v>0.04288803387056328</v>
       </c>
       <c r="C30">
-        <v>-0.06799187799978876</v>
+        <v>0.07549051625123443</v>
       </c>
       <c r="D30">
-        <v>-0.1163924128961602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1069752457973631</v>
+      </c>
+      <c r="E30">
+        <v>0.05428080113305506</v>
+      </c>
+      <c r="F30">
+        <v>-0.08154326632832035</v>
+      </c>
+      <c r="G30">
+        <v>0.02218422060588411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05259999835536082</v>
+        <v>0.05188127817130839</v>
       </c>
       <c r="C31">
-        <v>-0.03221481456540435</v>
+        <v>0.03549179066634252</v>
       </c>
       <c r="D31">
-        <v>-0.01009843993088976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01079355053197228</v>
+      </c>
+      <c r="E31">
+        <v>-0.0354205723780557</v>
+      </c>
+      <c r="F31">
+        <v>-0.01435828546746261</v>
+      </c>
+      <c r="G31">
+        <v>-0.02480553752533989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04283268391893633</v>
+        <v>0.04781992630577156</v>
       </c>
       <c r="C32">
-        <v>-0.04536727133917218</v>
+        <v>0.04284733745137492</v>
       </c>
       <c r="D32">
-        <v>-0.02067815605399216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01984603070739201</v>
+      </c>
+      <c r="E32">
+        <v>-0.02637645541967263</v>
+      </c>
+      <c r="F32">
+        <v>-0.00462511539688156</v>
+      </c>
+      <c r="G32">
+        <v>0.01458751582685115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07974133654587556</v>
+        <v>0.08304690436179325</v>
       </c>
       <c r="C33">
-        <v>-0.1088075504392105</v>
+        <v>0.1172553974040327</v>
       </c>
       <c r="D33">
-        <v>-0.06144054806859831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05935404654140295</v>
+      </c>
+      <c r="E33">
+        <v>-0.02440535519213814</v>
+      </c>
+      <c r="F33">
+        <v>-0.07999932455656462</v>
+      </c>
+      <c r="G33">
+        <v>-0.007333670657266154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05691855604685824</v>
+        <v>0.05657125398005342</v>
       </c>
       <c r="C34">
-        <v>-0.1208517482297841</v>
+        <v>0.1225432654097446</v>
       </c>
       <c r="D34">
-        <v>-0.07376676106361704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06122047172686964</v>
+      </c>
+      <c r="E34">
+        <v>0.01637579671582802</v>
+      </c>
+      <c r="F34">
+        <v>-0.08814856946692182</v>
+      </c>
+      <c r="G34">
+        <v>0.01704784689098154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.0269688199631698</v>
+        <v>0.02882010620153696</v>
       </c>
       <c r="C35">
-        <v>-0.01592260649734223</v>
+        <v>0.01712243883486442</v>
       </c>
       <c r="D35">
-        <v>-0.02132047864658147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0148619876076574</v>
+      </c>
+      <c r="E35">
+        <v>-0.02261297529115144</v>
+      </c>
+      <c r="F35">
+        <v>-0.04014005794282169</v>
+      </c>
+      <c r="G35">
+        <v>0.02360671691823883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02248511784697156</v>
+        <v>0.02720682907438922</v>
       </c>
       <c r="C36">
-        <v>-0.04486920748600145</v>
+        <v>0.04538677357333166</v>
       </c>
       <c r="D36">
-        <v>-0.05687867530001176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04534546560973925</v>
+      </c>
+      <c r="E36">
+        <v>-0.01706770764685718</v>
+      </c>
+      <c r="F36">
+        <v>-0.04532274158101639</v>
+      </c>
+      <c r="G36">
+        <v>0.08258028287318311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003640557046606312</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.005857649067477965</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0008508681471124441</v>
+      </c>
+      <c r="E37">
+        <v>-0.001278167210134164</v>
+      </c>
+      <c r="F37">
+        <v>-0.009847724733637386</v>
+      </c>
+      <c r="G37">
+        <v>-0.006360386344873522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08600180019236398</v>
+        <v>0.07979750741048582</v>
       </c>
       <c r="C39">
-        <v>-0.1523394407245684</v>
+        <v>0.1482212983239629</v>
       </c>
       <c r="D39">
-        <v>-0.04384696011477394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03838731870225004</v>
+      </c>
+      <c r="E39">
+        <v>-0.0114621811836223</v>
+      </c>
+      <c r="F39">
+        <v>-0.1158633736422134</v>
+      </c>
+      <c r="G39">
+        <v>-0.05305777968225594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04539296299303384</v>
+        <v>0.05099092109172247</v>
       </c>
       <c r="C40">
-        <v>-0.05710493397168762</v>
+        <v>0.06090802358319936</v>
       </c>
       <c r="D40">
-        <v>-0.01089943531759086</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.002722313547626204</v>
+      </c>
+      <c r="E40">
+        <v>0.001164945268759538</v>
+      </c>
+      <c r="F40">
+        <v>-0.05933688459141816</v>
+      </c>
+      <c r="G40">
+        <v>0.03611684092531341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02687831721740034</v>
+        <v>0.02875429920904691</v>
       </c>
       <c r="C41">
-        <v>-0.02027021747173271</v>
+        <v>0.02160963310603619</v>
       </c>
       <c r="D41">
-        <v>0.006245612806305843</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005697999360294258</v>
+      </c>
+      <c r="E41">
+        <v>-0.003765930158884595</v>
+      </c>
+      <c r="F41">
+        <v>0.01419918944228578</v>
+      </c>
+      <c r="G41">
+        <v>0.01322945385967777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04254833656301288</v>
+        <v>0.0417829643981235</v>
       </c>
       <c r="C43">
-        <v>-0.03720858629280948</v>
+        <v>0.03517478685361904</v>
       </c>
       <c r="D43">
-        <v>0.0007754522556959219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.004386400418856503</v>
+      </c>
+      <c r="E43">
+        <v>-0.02385466289907554</v>
+      </c>
+      <c r="F43">
+        <v>-0.02464600939248855</v>
+      </c>
+      <c r="G43">
+        <v>-0.003704837922475755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05529325848352318</v>
+        <v>0.06349337130820798</v>
       </c>
       <c r="C44">
-        <v>-0.07583690528003219</v>
+        <v>0.08286641404300263</v>
       </c>
       <c r="D44">
-        <v>-0.2797771666887929</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2582471545407068</v>
+      </c>
+      <c r="E44">
+        <v>0.02887739126819699</v>
+      </c>
+      <c r="F44">
+        <v>-0.1883309222464064</v>
+      </c>
+      <c r="G44">
+        <v>0.1764478113675754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>5.803685299600517e-06</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0001577036209369044</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.0001868050755904199</v>
+      </c>
+      <c r="E45">
+        <v>0.0001502431957697646</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002888892599817418</v>
+      </c>
+      <c r="G45">
+        <v>-0.0002931046536268386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02638150122510105</v>
+        <v>0.02686185175586567</v>
       </c>
       <c r="C46">
-        <v>-0.02966780230581749</v>
+        <v>0.02851062951956957</v>
       </c>
       <c r="D46">
-        <v>-0.01002067069477506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.004996749986636296</v>
+      </c>
+      <c r="E46">
+        <v>-0.03312393127131451</v>
+      </c>
+      <c r="F46">
+        <v>-0.06579577567187185</v>
+      </c>
+      <c r="G46">
+        <v>-0.03290139806879996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05189803117607295</v>
+        <v>0.05101024224313922</v>
       </c>
       <c r="C47">
-        <v>-0.02315401554460453</v>
+        <v>0.02490619919513123</v>
       </c>
       <c r="D47">
-        <v>0.02566825636577876</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02172905578159618</v>
+      </c>
+      <c r="E47">
+        <v>-0.05459537334204295</v>
+      </c>
+      <c r="F47">
+        <v>0.01318402137123992</v>
+      </c>
+      <c r="G47">
+        <v>-0.03228634418171032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04698627603781092</v>
+        <v>0.05046759161455795</v>
       </c>
       <c r="C48">
-        <v>-0.0654579710822933</v>
+        <v>0.06421102485331212</v>
       </c>
       <c r="D48">
-        <v>-0.0189359207545457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01836485899790133</v>
+      </c>
+      <c r="E48">
+        <v>0.01867045990458232</v>
+      </c>
+      <c r="F48">
+        <v>-0.05361974404308541</v>
+      </c>
+      <c r="G48">
+        <v>-0.02449728760467169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1951204696179609</v>
+        <v>0.1980849709253904</v>
       </c>
       <c r="C49">
-        <v>0.01557554644619327</v>
+        <v>-0.008666350370859143</v>
       </c>
       <c r="D49">
-        <v>-0.02865468267426981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04131557872795137</v>
+      </c>
+      <c r="E49">
+        <v>0.02541171699336146</v>
+      </c>
+      <c r="F49">
+        <v>0.05753244373434187</v>
+      </c>
+      <c r="G49">
+        <v>0.01019447339559092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05059488529178843</v>
+        <v>0.05223043768444439</v>
       </c>
       <c r="C50">
-        <v>-0.02993003033046139</v>
+        <v>0.03286620001604185</v>
       </c>
       <c r="D50">
-        <v>-0.0201408837584416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02275364041961863</v>
+      </c>
+      <c r="E50">
+        <v>-0.02613069169438812</v>
+      </c>
+      <c r="F50">
+        <v>-0.00817264062298291</v>
+      </c>
+      <c r="G50">
+        <v>-0.02278190622805369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1450033241430938</v>
+        <v>0.138568299066694</v>
       </c>
       <c r="C52">
-        <v>-0.0359779828425634</v>
+        <v>0.03710110580189639</v>
       </c>
       <c r="D52">
-        <v>-0.05880430440550827</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05601881823725536</v>
+      </c>
+      <c r="E52">
+        <v>-0.0294111044002634</v>
+      </c>
+      <c r="F52">
+        <v>0.05939658767349985</v>
+      </c>
+      <c r="G52">
+        <v>-0.02692767691509252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1753994048165218</v>
+        <v>0.166343533852088</v>
       </c>
       <c r="C53">
-        <v>-0.004980279963335495</v>
+        <v>0.008258265162146975</v>
       </c>
       <c r="D53">
-        <v>-0.1021009378757633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1056332458601457</v>
+      </c>
+      <c r="E53">
+        <v>-0.03075918664230391</v>
+      </c>
+      <c r="F53">
+        <v>0.1002369134830388</v>
+      </c>
+      <c r="G53">
+        <v>-0.05839348987385358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01085556725596925</v>
+        <v>0.01407467652558784</v>
       </c>
       <c r="C54">
-        <v>-0.027019245533251</v>
+        <v>0.02832412096626545</v>
       </c>
       <c r="D54">
-        <v>-0.0128781381928806</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01273237580261727</v>
+      </c>
+      <c r="E54">
+        <v>-0.0129017814186684</v>
+      </c>
+      <c r="F54">
+        <v>-0.05581919472176752</v>
+      </c>
+      <c r="G54">
+        <v>0.004524807196209897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1207375404484966</v>
+        <v>0.1169610901179631</v>
       </c>
       <c r="C55">
-        <v>-0.00606851612224843</v>
+        <v>0.01228480993658921</v>
       </c>
       <c r="D55">
-        <v>-0.06398661083513166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06295568028736644</v>
+      </c>
+      <c r="E55">
+        <v>-0.05312354913800788</v>
+      </c>
+      <c r="F55">
+        <v>0.0270096845182956</v>
+      </c>
+      <c r="G55">
+        <v>-0.06616654164361672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1815854614938146</v>
+        <v>0.1739068667387876</v>
       </c>
       <c r="C56">
-        <v>0.0009143102103572986</v>
+        <v>0.0004242474273913353</v>
       </c>
       <c r="D56">
-        <v>-0.05320938589753108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05883125359856385</v>
+      </c>
+      <c r="E56">
+        <v>-0.0481571990091287</v>
+      </c>
+      <c r="F56">
+        <v>0.1379253932185404</v>
+      </c>
+      <c r="G56">
+        <v>-0.06112488876177966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04564526437280105</v>
+        <v>0.04544179124711514</v>
       </c>
       <c r="C58">
-        <v>-0.09077184995804234</v>
+        <v>0.09747588097957434</v>
       </c>
       <c r="D58">
-        <v>0.008796568776433167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.006868198671501809</v>
+      </c>
+      <c r="E58">
+        <v>-0.04026580350650706</v>
+      </c>
+      <c r="F58">
+        <v>-0.03908381101863372</v>
+      </c>
+      <c r="G58">
+        <v>-0.02010786673137963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1843021015813764</v>
+        <v>0.1875015159961002</v>
       </c>
       <c r="C59">
-        <v>0.1902285945796088</v>
+        <v>-0.1928072856535018</v>
       </c>
       <c r="D59">
-        <v>0.08033091823926725</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07837372951902953</v>
+      </c>
+      <c r="E59">
+        <v>0.00995865039081917</v>
+      </c>
+      <c r="F59">
+        <v>-0.04522714769458155</v>
+      </c>
+      <c r="G59">
+        <v>-0.03993543874092822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2176163167475229</v>
+        <v>0.2122085243693018</v>
       </c>
       <c r="C60">
-        <v>-0.0170697293047016</v>
+        <v>0.02330390538006978</v>
       </c>
       <c r="D60">
-        <v>0.04945163106472124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02999044518346962</v>
+      </c>
+      <c r="E60">
+        <v>-0.01394627326932145</v>
+      </c>
+      <c r="F60">
+        <v>0.2140262976311765</v>
+      </c>
+      <c r="G60">
+        <v>-0.07464077702469392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06692081185721863</v>
+        <v>0.06355553302369725</v>
       </c>
       <c r="C61">
-        <v>-0.1212422550829758</v>
+        <v>0.1190593958938858</v>
       </c>
       <c r="D61">
-        <v>-0.03493664331577554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0274565146446318</v>
+      </c>
+      <c r="E61">
+        <v>-0.02299619032739753</v>
+      </c>
+      <c r="F61">
+        <v>-0.07672620385111958</v>
+      </c>
+      <c r="G61">
+        <v>-0.02039178901585329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1683215150636754</v>
+        <v>0.1644010878963033</v>
       </c>
       <c r="C62">
-        <v>0.005176129030622754</v>
+        <v>-0.002365430221824379</v>
       </c>
       <c r="D62">
-        <v>-0.04119239673615224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04809574114116286</v>
+      </c>
+      <c r="E62">
+        <v>-0.04925798562418922</v>
+      </c>
+      <c r="F62">
+        <v>0.1074522325425225</v>
+      </c>
+      <c r="G62">
+        <v>-0.05578243540096273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03785084409625863</v>
+        <v>0.04327772793296707</v>
       </c>
       <c r="C63">
-        <v>-0.06663971083093836</v>
+        <v>0.07054258757819677</v>
       </c>
       <c r="D63">
-        <v>-0.02605277337026141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01762888185122146</v>
+      </c>
+      <c r="E63">
+        <v>-0.0258047011329529</v>
+      </c>
+      <c r="F63">
+        <v>-0.05053431251356159</v>
+      </c>
+      <c r="G63">
+        <v>0.0238633307678527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1122729328133127</v>
+        <v>0.1100391781296103</v>
       </c>
       <c r="C64">
-        <v>-0.04990541873276418</v>
+        <v>0.05357597897827782</v>
       </c>
       <c r="D64">
-        <v>-0.03730366367386138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03981603179261835</v>
+      </c>
+      <c r="E64">
+        <v>-0.01474930399746084</v>
+      </c>
+      <c r="F64">
+        <v>0.03332204873443177</v>
+      </c>
+      <c r="G64">
+        <v>-0.002037010970409249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1574405412209352</v>
+        <v>0.1605270631657944</v>
       </c>
       <c r="C65">
-        <v>0.05511086225056364</v>
+        <v>-0.04643103579602683</v>
       </c>
       <c r="D65">
-        <v>-0.04534722793265879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05059071712810504</v>
+      </c>
+      <c r="E65">
+        <v>-0.00904039421192163</v>
+      </c>
+      <c r="F65">
+        <v>0.004917440716426465</v>
+      </c>
+      <c r="G65">
+        <v>-0.01613316121569476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1041429232255839</v>
+        <v>0.09702408883010608</v>
       </c>
       <c r="C66">
-        <v>-0.1325028989484038</v>
+        <v>0.1324372834351883</v>
       </c>
       <c r="D66">
-        <v>-0.04886194347806014</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03953211123156986</v>
+      </c>
+      <c r="E66">
+        <v>-0.009106950405382196</v>
+      </c>
+      <c r="F66">
+        <v>-0.09526181559199356</v>
+      </c>
+      <c r="G66">
+        <v>-0.006293294664999791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05783263992804652</v>
+        <v>0.04845478051127798</v>
       </c>
       <c r="C67">
-        <v>-0.07517999339184925</v>
+        <v>0.06888862228812533</v>
       </c>
       <c r="D67">
-        <v>0.05509491198031625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05918792137775808</v>
+      </c>
+      <c r="E67">
+        <v>-0.06356933281712121</v>
+      </c>
+      <c r="F67">
+        <v>0.03602135776290596</v>
+      </c>
+      <c r="G67">
+        <v>0.001217526971552221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1374000704040508</v>
+        <v>0.1404825840204235</v>
       </c>
       <c r="C68">
-        <v>0.2470130876556517</v>
+        <v>-0.2493791086133776</v>
       </c>
       <c r="D68">
-        <v>0.03693116960952214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03055459108830865</v>
+      </c>
+      <c r="E68">
+        <v>0.09565406463112228</v>
+      </c>
+      <c r="F68">
+        <v>-0.1093267183909767</v>
+      </c>
+      <c r="G68">
+        <v>-0.03539563041190922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03954332697215855</v>
+        <v>0.03887864839706228</v>
       </c>
       <c r="C69">
-        <v>-0.01379672929716631</v>
+        <v>0.01542002540745344</v>
       </c>
       <c r="D69">
-        <v>-0.006301434148434765</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00580195445831148</v>
+      </c>
+      <c r="E69">
+        <v>-0.06173641643467162</v>
+      </c>
+      <c r="F69">
+        <v>0.04305668839763446</v>
+      </c>
+      <c r="G69">
+        <v>0.02446782869942832</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07059971719059997</v>
+        <v>0.07202840694461274</v>
       </c>
       <c r="C70">
-        <v>-0.07594673710767487</v>
+        <v>0.06990687979901369</v>
       </c>
       <c r="D70">
-        <v>0.4814643593870356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3882336975946044</v>
+      </c>
+      <c r="E70">
+        <v>-0.1300798957622778</v>
+      </c>
+      <c r="F70">
+        <v>0.4373776902061632</v>
+      </c>
+      <c r="G70">
+        <v>-0.4033883592468329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1592520530193643</v>
+        <v>0.1636436640739737</v>
       </c>
       <c r="C71">
-        <v>0.2568200670410579</v>
+        <v>-0.2562311590496102</v>
       </c>
       <c r="D71">
-        <v>0.04206174246509503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03639839525708769</v>
+      </c>
+      <c r="E71">
+        <v>0.1079864424677072</v>
+      </c>
+      <c r="F71">
+        <v>-0.1120020213070407</v>
+      </c>
+      <c r="G71">
+        <v>-0.03539357266546411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1433172438046377</v>
+        <v>0.1483946458618683</v>
       </c>
       <c r="C72">
-        <v>-0.01434776688359288</v>
+        <v>0.01310466338601194</v>
       </c>
       <c r="D72">
-        <v>-0.07403010902227131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06275438397601513</v>
+      </c>
+      <c r="E72">
+        <v>-0.04771669901961456</v>
+      </c>
+      <c r="F72">
+        <v>0.01452249575969068</v>
+      </c>
+      <c r="G72">
+        <v>0.0107021634432944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1936921872546995</v>
+        <v>0.2009140348911184</v>
       </c>
       <c r="C73">
-        <v>-0.02176776693690473</v>
+        <v>0.02919275270527306</v>
       </c>
       <c r="D73">
-        <v>-0.05021532380334834</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05321219254710156</v>
+      </c>
+      <c r="E73">
+        <v>-0.07839902818623613</v>
+      </c>
+      <c r="F73">
+        <v>0.09467392536907587</v>
+      </c>
+      <c r="G73">
+        <v>0.02406613624656531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08729628481503778</v>
+        <v>0.08631225757392567</v>
       </c>
       <c r="C74">
-        <v>-0.007044211768397072</v>
+        <v>0.01336827387708953</v>
       </c>
       <c r="D74">
-        <v>-0.07838523246867614</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.08013067106887847</v>
+      </c>
+      <c r="E74">
+        <v>-0.03152767661366961</v>
+      </c>
+      <c r="F74">
+        <v>0.06028567860667847</v>
+      </c>
+      <c r="G74">
+        <v>0.004634858613118461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1242192097066395</v>
+        <v>0.1166718092095279</v>
       </c>
       <c r="C75">
-        <v>-0.02147708501892031</v>
+        <v>0.02459188144531086</v>
       </c>
       <c r="D75">
-        <v>-0.05618947046248976</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05139298748816463</v>
+      </c>
+      <c r="E75">
+        <v>-0.06771242197288517</v>
+      </c>
+      <c r="F75">
+        <v>0.05049939195467384</v>
+      </c>
+      <c r="G75">
+        <v>-0.04057092442507691</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07271118944185483</v>
+        <v>0.08720849364603252</v>
       </c>
       <c r="C77">
-        <v>-0.1212254092758591</v>
+        <v>0.1188129154988018</v>
       </c>
       <c r="D77">
-        <v>-0.06638927125227105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07379433667713456</v>
+      </c>
+      <c r="E77">
+        <v>0.008581995501921867</v>
+      </c>
+      <c r="F77">
+        <v>-0.07760578339603716</v>
+      </c>
+      <c r="G77">
+        <v>-0.1175703445205945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09121678781173588</v>
+        <v>0.09378273489504926</v>
       </c>
       <c r="C78">
-        <v>-0.1393106532942137</v>
+        <v>0.1353781211554464</v>
       </c>
       <c r="D78">
-        <v>-0.08910349531952365</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07060247278807311</v>
+      </c>
+      <c r="E78">
+        <v>0.003226458274268767</v>
+      </c>
+      <c r="F78">
+        <v>-0.1152615601748663</v>
+      </c>
+      <c r="G78">
+        <v>-0.1122972127993701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1679913666042408</v>
+        <v>0.162936331263248</v>
       </c>
       <c r="C79">
-        <v>-0.01949730232983909</v>
+        <v>0.0202552805471267</v>
       </c>
       <c r="D79">
-        <v>-0.03385500987253397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03345702792000563</v>
+      </c>
+      <c r="E79">
+        <v>-0.04326347173776681</v>
+      </c>
+      <c r="F79">
+        <v>0.04651600921758208</v>
+      </c>
+      <c r="G79">
+        <v>-0.04263964346349718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07571605570821223</v>
+        <v>0.07327161112253214</v>
       </c>
       <c r="C80">
-        <v>-0.05838954481703375</v>
+        <v>0.05729672914130952</v>
       </c>
       <c r="D80">
-        <v>-0.003273254713003124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01234059960896018</v>
+      </c>
+      <c r="E80">
+        <v>-0.04475792279257877</v>
+      </c>
+      <c r="F80">
+        <v>-0.1134004965906888</v>
+      </c>
+      <c r="G80">
+        <v>0.08916097308957653</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1113387516238819</v>
+        <v>0.105186840377732</v>
       </c>
       <c r="C81">
-        <v>0.01526415283824892</v>
+        <v>-0.01154028644460534</v>
       </c>
       <c r="D81">
-        <v>-0.03037198667430726</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02961790687758586</v>
+      </c>
+      <c r="E81">
+        <v>-0.06518774911180072</v>
+      </c>
+      <c r="F81">
+        <v>0.05949029098696867</v>
+      </c>
+      <c r="G81">
+        <v>-0.009104389833719004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1609599182666703</v>
+        <v>0.1575298336738733</v>
       </c>
       <c r="C82">
-        <v>0.02240648360442728</v>
+        <v>-0.01527876111656722</v>
       </c>
       <c r="D82">
-        <v>-0.09023628607272996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09519608178847642</v>
+      </c>
+      <c r="E82">
+        <v>-0.02270884094641627</v>
+      </c>
+      <c r="F82">
+        <v>0.09060852590254928</v>
+      </c>
+      <c r="G82">
+        <v>0.009655333884259197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05386112575199726</v>
+        <v>0.04971764435001044</v>
       </c>
       <c r="C83">
-        <v>-0.05930982725459535</v>
+        <v>0.05610199257105603</v>
       </c>
       <c r="D83">
-        <v>0.00876113553205129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01002318016054801</v>
+      </c>
+      <c r="E83">
+        <v>-0.006953983813731663</v>
+      </c>
+      <c r="F83">
+        <v>-0.002092159440864669</v>
+      </c>
+      <c r="G83">
+        <v>-0.01670087422834657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.0516555475531673</v>
+        <v>0.04894269451646429</v>
       </c>
       <c r="C84">
-        <v>-0.07422155373496667</v>
+        <v>0.07228693113814416</v>
       </c>
       <c r="D84">
-        <v>-0.008771046523503169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.008085190564258745</v>
+      </c>
+      <c r="E84">
+        <v>-0.006091199344290857</v>
+      </c>
+      <c r="F84">
+        <v>0.01856939416393536</v>
+      </c>
+      <c r="G84">
+        <v>-0.03227584915982083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1408816644714216</v>
+        <v>0.1346478422143617</v>
       </c>
       <c r="C85">
-        <v>-0.01198638934417176</v>
+        <v>0.01515399544295376</v>
       </c>
       <c r="D85">
-        <v>-0.09217358327039334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08839692255918778</v>
+      </c>
+      <c r="E85">
+        <v>-0.03504788170214072</v>
+      </c>
+      <c r="F85">
+        <v>0.03131821044778761</v>
+      </c>
+      <c r="G85">
+        <v>-0.02796771827767233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08470257150910915</v>
+        <v>0.08216394757342629</v>
       </c>
       <c r="C86">
-        <v>-0.104840352892883</v>
+        <v>0.1062027328347348</v>
       </c>
       <c r="D86">
-        <v>0.544919493149188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.6396009586240795</v>
+      </c>
+      <c r="E86">
+        <v>-0.4380917825146395</v>
+      </c>
+      <c r="F86">
+        <v>-0.4590769741529803</v>
+      </c>
+      <c r="G86">
+        <v>0.04985748463484124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08817642062781274</v>
+        <v>0.08748007304031574</v>
       </c>
       <c r="C87">
-        <v>-0.08188660022480006</v>
+        <v>0.08364857859270126</v>
       </c>
       <c r="D87">
-        <v>-0.05138521762786939</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04410823088314591</v>
+      </c>
+      <c r="E87">
+        <v>0.1035155911901149</v>
+      </c>
+      <c r="F87">
+        <v>-0.0926995451818277</v>
+      </c>
+      <c r="G87">
+        <v>0.06048915447963012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06096924076047886</v>
+        <v>0.06070560006593997</v>
       </c>
       <c r="C88">
-        <v>-0.05972744544244699</v>
+        <v>0.06088546206398243</v>
       </c>
       <c r="D88">
-        <v>-0.01529733747006091</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01709361002905187</v>
+      </c>
+      <c r="E88">
+        <v>-0.01473336680852866</v>
+      </c>
+      <c r="F88">
+        <v>0.02560310553744338</v>
+      </c>
+      <c r="G88">
+        <v>-0.01209638740580941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1448067909584241</v>
+        <v>0.1475644040124046</v>
       </c>
       <c r="C89">
-        <v>0.2058397072805333</v>
+        <v>-0.2164290763428389</v>
       </c>
       <c r="D89">
-        <v>0.02200089431454457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0239045767293973</v>
+      </c>
+      <c r="E89">
+        <v>0.09665970009014874</v>
+      </c>
+      <c r="F89">
+        <v>-0.08800956756961667</v>
+      </c>
+      <c r="G89">
+        <v>-0.00257018293328753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1733197902786057</v>
+        <v>0.1807679430437088</v>
       </c>
       <c r="C90">
-        <v>0.2357646570625494</v>
+        <v>-0.2426546516464679</v>
       </c>
       <c r="D90">
-        <v>0.05532103665390652</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.05239211843830698</v>
+      </c>
+      <c r="E90">
+        <v>0.1385331551805605</v>
+      </c>
+      <c r="F90">
+        <v>-0.1293589154387081</v>
+      </c>
+      <c r="G90">
+        <v>-0.02000689236054257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1267122531151342</v>
+        <v>0.1206419105834902</v>
       </c>
       <c r="C91">
-        <v>0.02008564614205894</v>
+        <v>-0.01794779092738867</v>
       </c>
       <c r="D91">
-        <v>-0.02252530564612454</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01642339469955205</v>
+      </c>
+      <c r="E91">
+        <v>-0.09788882830476828</v>
+      </c>
+      <c r="F91">
+        <v>0.08529254032049924</v>
+      </c>
+      <c r="G91">
+        <v>0.007409265732653579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1678056054406173</v>
+        <v>0.1702061929010145</v>
       </c>
       <c r="C92">
-        <v>0.2709028381312167</v>
+        <v>-0.281021379007206</v>
       </c>
       <c r="D92">
-        <v>0.05667155912037503</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04368254594966479</v>
+      </c>
+      <c r="E92">
+        <v>0.09811863852016997</v>
+      </c>
+      <c r="F92">
+        <v>-0.1668918353005567</v>
+      </c>
+      <c r="G92">
+        <v>-0.08046493748913319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1739406274707589</v>
+        <v>0.1817256372699665</v>
       </c>
       <c r="C93">
-        <v>0.2294850821006353</v>
+        <v>-0.2358953076456786</v>
       </c>
       <c r="D93">
-        <v>0.03060323890131482</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02330386859973986</v>
+      </c>
+      <c r="E93">
+        <v>0.07088418735895405</v>
+      </c>
+      <c r="F93">
+        <v>-0.08346484477662078</v>
+      </c>
+      <c r="G93">
+        <v>-0.07320739280719471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1198438822863267</v>
+        <v>0.1141911130595183</v>
       </c>
       <c r="C94">
-        <v>-0.03217856661867656</v>
+        <v>0.03325594526690154</v>
       </c>
       <c r="D94">
-        <v>-0.04855517910235124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04399091032376291</v>
+      </c>
+      <c r="E94">
+        <v>-0.06466349117394694</v>
+      </c>
+      <c r="F94">
+        <v>0.05098349727740147</v>
+      </c>
+      <c r="G94">
+        <v>-0.03395545145704184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1195908779118028</v>
+        <v>0.1226202049877603</v>
       </c>
       <c r="C95">
-        <v>-0.10826641074521</v>
+        <v>0.115867880777404</v>
       </c>
       <c r="D95">
-        <v>-0.002672366876440937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.005164503579703054</v>
+      </c>
+      <c r="E95">
+        <v>-0.03865788718520151</v>
+      </c>
+      <c r="F95">
+        <v>-0.03967225641174238</v>
+      </c>
+      <c r="G95">
+        <v>-0.008577370727224634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1233911072958419</v>
+        <v>0.1216842503714032</v>
       </c>
       <c r="C96">
-        <v>-0.1301714155931022</v>
+        <v>0.1365633636755689</v>
       </c>
       <c r="D96">
-        <v>0.04810377092947173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.02274805046334704</v>
+      </c>
+      <c r="E96">
+        <v>-0.07519647549724459</v>
+      </c>
+      <c r="F96">
+        <v>0.158692747698318</v>
+      </c>
+      <c r="G96">
+        <v>-0.0509282882003273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1920456965199879</v>
+        <v>0.1960714161466511</v>
       </c>
       <c r="C97">
-        <v>0.01269957776208503</v>
+        <v>-0.01449304847091176</v>
       </c>
       <c r="D97">
-        <v>0.1169291066615137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1654785265763137</v>
+      </c>
+      <c r="E97">
+        <v>-0.06383638364921559</v>
+      </c>
+      <c r="F97">
+        <v>0.2764306699988586</v>
+      </c>
+      <c r="G97">
+        <v>0.8320722940190082</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1984984453180159</v>
+        <v>0.2040197998601914</v>
       </c>
       <c r="C98">
-        <v>-0.02455748942491497</v>
+        <v>0.03033466736323549</v>
       </c>
       <c r="D98">
-        <v>0.1140466056113043</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09987016533553783</v>
+      </c>
+      <c r="E98">
+        <v>0.04132267970746998</v>
+      </c>
+      <c r="F98">
+        <v>0.09748889152472781</v>
+      </c>
+      <c r="G98">
+        <v>-0.01701339540009064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05455921448581484</v>
+        <v>0.05432763754990676</v>
       </c>
       <c r="C99">
-        <v>-0.05745787589236771</v>
+        <v>0.05933791657622789</v>
       </c>
       <c r="D99">
-        <v>-0.00768267452532211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.006289277475756299</v>
+      </c>
+      <c r="E99">
+        <v>-0.006046710695669735</v>
+      </c>
+      <c r="F99">
+        <v>-0.03953923413378768</v>
+      </c>
+      <c r="G99">
+        <v>0.002274625511660724</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1129912639131515</v>
+        <v>0.1073054393956177</v>
       </c>
       <c r="C100">
-        <v>-0.3820579287039645</v>
+        <v>0.3499173437810704</v>
       </c>
       <c r="D100">
-        <v>0.4107427650918219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3949825563157977</v>
+      </c>
+      <c r="E100">
+        <v>0.7704996478661215</v>
+      </c>
+      <c r="F100">
+        <v>0.03048440403155636</v>
+      </c>
+      <c r="G100">
+        <v>0.02237539178305311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02424416297349745</v>
+        <v>0.02698389424977862</v>
       </c>
       <c r="C101">
-        <v>-0.04525314866674715</v>
+        <v>0.04244283698435253</v>
       </c>
       <c r="D101">
-        <v>-0.004164007784229548</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.001550937918040931</v>
+      </c>
+      <c r="E101">
+        <v>-0.02482234584058701</v>
+      </c>
+      <c r="F101">
+        <v>-0.07044331279116356</v>
+      </c>
+      <c r="G101">
+        <v>-0.004683441349309555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
